--- a/18.6/18.6.2.xlsx
+++ b/18.6/18.6.2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Чек-лист</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>Бот не умножает на нужное количество валюты</t>
+  </si>
+  <si>
+    <t>B-4</t>
+  </si>
+  <si>
+    <t>Бот игнорирует ввод отрицательного значения валюты и конвертирует его</t>
   </si>
 </sst>
 </file>
@@ -422,7 +428,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -495,7 +501,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="30">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -504,8 +510,12 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
@@ -524,9 +534,11 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
